--- a/medicine/Sexualité et sexologie/Les_Fausses_Pudeurs/Les_Fausses_Pudeurs.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Fausses_Pudeurs/Les_Fausses_Pudeurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fausses Pudeurs (Mom and Dad) est un film américain réalisé par William Beaudine et sorti en 1945 aux États-Unis. Depuis 2005, le film est inscrit au National Film Registry.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parce que ses parents refusent de lui parler de l'hygiène sexuelle, une étudiante tombe enceinte de son petit ami. Ses parents se sentent responsable, et le professeur d'éducation sexuelle se sert de cette occasion pour montrer à ses élèves un film sur les dangers des relations et sur la naissance d'un bébé.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Les Fausses Pudeurs
 Titre original : Mom and Dad
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>June Carlson : Joan Blake
 Lois Austin : Sarah Blake
